--- a/data-raw/turnips/turnips.xlsx
+++ b/data-raw/turnips/turnips.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -143,13 +143,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1223"/>
+  <dimension ref="A1:C1224"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1181" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1224" activeCellId="0" sqref="A1224"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1182" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1225" activeCellId="0" sqref="C1225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13584,6 +13584,17 @@
       </c>
       <c r="C1223" s="0" t="n">
         <v>104</v>
+      </c>
+    </row>
+    <row r="1224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1224" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="B1224" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1224" s="0" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/turnips/turnips.xlsx
+++ b/data-raw/turnips/turnips.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -143,13 +143,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1224"/>
+  <dimension ref="A1:C1230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1182" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1225" activeCellId="0" sqref="C1225"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1212" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1229" activeCellId="0" sqref="C1229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13595,6 +13595,72 @@
       </c>
       <c r="C1224" s="0" t="n">
         <v>89</v>
+      </c>
+    </row>
+    <row r="1225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1225" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="B1225" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1225" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1226" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B1226" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1226" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1227" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B1227" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1227" s="0" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1228" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B1228" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1228" s="0" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1229" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B1229" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1229" s="0" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1230" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="B1230" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1230" s="0" t="n">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/turnips/turnips.xlsx
+++ b/data-raw/turnips/turnips.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -143,13 +143,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1230"/>
+  <dimension ref="A1:C1262"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1212" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1229" activeCellId="0" sqref="C1229"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1220" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1263" activeCellId="0" sqref="A1263"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13661,6 +13661,358 @@
       </c>
       <c r="C1230" s="0" t="n">
         <v>65</v>
+      </c>
+    </row>
+    <row r="1231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1231" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="B1231" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1231" s="0" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1232" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="B1232" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1232" s="0" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1233" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="B1233" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1233" s="0" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1234" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B1234" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1234" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1235" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B1235" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1235" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1236" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="B1236" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1236" s="0" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1237" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="B1237" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1237" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1238" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="B1238" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1238" s="0" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1239" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="B1239" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1239" s="0" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1240" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="B1240" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1240" s="0" t="n">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="1241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1241" s="2" t="n">
+        <v>44965</v>
+      </c>
+      <c r="B1241" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1241" s="0" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="1242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1242" s="2" t="n">
+        <v>44965</v>
+      </c>
+      <c r="B1242" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1242" s="0" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1243" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="B1243" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1243" s="0" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1244" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="B1244" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1244" s="0" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1245" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="B1245" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1245" s="0" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1246" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="B1246" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1246" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1247" s="2" t="n">
+        <v>44968</v>
+      </c>
+      <c r="B1247" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1247" s="0" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1248" s="2" t="n">
+        <v>44968</v>
+      </c>
+      <c r="B1248" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1248" s="0" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1249" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="B1249" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1249" s="0" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1250" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="B1250" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1250" s="0" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1251" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="B1251" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1251" s="0" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1252" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="B1252" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1252" s="0" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="1253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1253" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="B1253" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1253" s="0" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1254" s="2" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B1254" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1254" s="0" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1255" s="2" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B1255" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1255" s="0" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1256" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="B1256" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1256" s="0" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1257" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="B1257" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1257" s="0" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1258" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="B1258" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1258" s="0" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1259" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="B1259" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1259" s="0" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1260" s="2" t="n">
+        <v>44975</v>
+      </c>
+      <c r="B1260" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1260" s="0" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1261" s="2" t="n">
+        <v>44975</v>
+      </c>
+      <c r="B1261" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1261" s="0" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1262" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="B1262" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1262" s="0" t="n">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/turnips/turnips.xlsx
+++ b/data-raw/turnips/turnips.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -143,13 +143,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1262"/>
+  <dimension ref="A1:C1269"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1220" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1263" activeCellId="0" sqref="A1263"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1227" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1270" activeCellId="0" sqref="A1270"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -14013,6 +14013,83 @@
       </c>
       <c r="C1262" s="0" t="n">
         <v>108</v>
+      </c>
+    </row>
+    <row r="1263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1263" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="B1263" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1263" s="0" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1264" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="B1264" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1264" s="0" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1265" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="B1265" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1265" s="0" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1266" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="B1266" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1266" s="0" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1267" s="2" t="n">
+        <v>44979</v>
+      </c>
+      <c r="B1267" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1267" s="0" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1268" s="2" t="n">
+        <v>44979</v>
+      </c>
+      <c r="B1268" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1268" s="0" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1269" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="B1269" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1269" s="0" t="n">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/turnips/turnips.xlsx
+++ b/data-raw/turnips/turnips.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -143,13 +143,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1269"/>
+  <dimension ref="A1:C1289"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1227" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1270" activeCellId="0" sqref="A1270"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1252" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1290" activeCellId="0" sqref="A1290"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -14090,6 +14090,226 @@
       </c>
       <c r="C1269" s="0" t="n">
         <v>71</v>
+      </c>
+    </row>
+    <row r="1270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1270" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="B1270" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1270" s="0" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1271" s="2" t="n">
+        <v>44981</v>
+      </c>
+      <c r="B1271" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1271" s="0" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1272" s="2" t="n">
+        <v>44981</v>
+      </c>
+      <c r="B1272" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1272" s="0" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1273" s="2" t="n">
+        <v>44982</v>
+      </c>
+      <c r="B1273" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1273" s="0" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1274" s="2" t="n">
+        <v>44982</v>
+      </c>
+      <c r="B1274" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1274" s="0" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1275" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="B1275" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1275" s="0" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1276" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="B1276" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1276" s="0" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1277" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="B1277" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1277" s="0" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1278" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B1278" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1278" s="0" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1279" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B1279" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1279" s="0" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1280" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B1280" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1280" s="0" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1281" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B1281" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1281" s="0" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1282" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="B1282" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1282" s="0" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1283" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="B1283" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1283" s="0" t="n">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="1284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1284" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B1284" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1284" s="0" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1285" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B1285" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1285" s="0" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1286" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="B1286" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1286" s="0" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1287" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="B1287" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1287" s="0" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1288" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="B1288" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1288" s="0" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1289" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="B1289" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1289" s="0" t="n">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/turnips/turnips.xlsx
+++ b/data-raw/turnips/turnips.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -113,7 +113,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -123,6 +123,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -143,13 +147,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1289"/>
+  <dimension ref="A1:C1382"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1252" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1290" activeCellId="0" sqref="A1290"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1299" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1321" activeCellId="0" sqref="A1321"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -14310,6 +14314,1029 @@
       </c>
       <c r="C1289" s="0" t="n">
         <v>93</v>
+      </c>
+    </row>
+    <row r="1290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1290" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="B1290" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1290" s="0" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1291" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="B1291" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1291" s="0" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1292" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="B1292" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1292" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1293" s="2" t="n">
+        <v>44993</v>
+      </c>
+      <c r="B1293" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1293" s="0" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1294" s="2" t="n">
+        <v>44993</v>
+      </c>
+      <c r="B1294" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1294" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1295" s="2" t="n">
+        <v>44994</v>
+      </c>
+      <c r="B1295" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1295" s="0" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1296" s="2" t="n">
+        <v>44994</v>
+      </c>
+      <c r="B1296" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1296" s="0" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1297" s="2" t="n">
+        <v>44995</v>
+      </c>
+      <c r="B1297" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1297" s="0" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1298" s="2" t="n">
+        <v>44995</v>
+      </c>
+      <c r="B1298" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1298" s="0" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1299" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="B1299" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1299" s="0" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1300" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="B1300" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1300" s="0" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1301" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="B1301" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1301" s="0" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1302" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="B1302" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1302" s="0" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1303" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="B1303" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1303" s="0" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1304" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B1304" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1304" s="0" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1305" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B1305" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1305" s="0" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1306" s="2" t="n">
+        <v>45000</v>
+      </c>
+      <c r="B1306" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1306" s="0" t="n">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="1307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1307" s="2" t="n">
+        <v>45000</v>
+      </c>
+      <c r="B1307" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1307" s="0" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1308" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="B1308" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1308" s="0" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1309" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="B1309" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1309" s="0" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1310" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="B1310" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1310" s="0" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1311" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="B1311" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1311" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1312" s="2" t="n">
+        <v>45003</v>
+      </c>
+      <c r="B1312" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1312" s="0" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1313" s="2" t="n">
+        <v>45003</v>
+      </c>
+      <c r="B1313" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1313" s="0" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1314" s="2" t="n">
+        <v>45004</v>
+      </c>
+      <c r="B1314" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1314" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1315" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="B1315" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1315" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1316" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="B1316" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1316" s="0" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1317" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="B1317" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1317" s="0" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1318" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="B1318" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1318" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1319" s="2" t="n">
+        <v>45007</v>
+      </c>
+      <c r="B1319" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1319" s="0" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1320" s="2" t="n">
+        <v>45007</v>
+      </c>
+      <c r="B1320" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1320" s="0" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1321" s="2" t="n">
+        <v>45008</v>
+      </c>
+      <c r="B1321" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1321" s="0" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1322" s="2" t="n">
+        <v>45008</v>
+      </c>
+      <c r="B1322" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1322" s="0" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1323" s="2" t="n">
+        <v>45009</v>
+      </c>
+      <c r="B1323" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1323" s="0" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1324" s="2" t="n">
+        <v>45009</v>
+      </c>
+      <c r="B1324" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1324" s="0" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1325" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="B1325" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1325" s="0" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1326" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="B1326" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1326" s="0" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1327" s="2" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B1327" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1327" s="0" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1328" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="B1328" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1328" s="0" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1329" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="B1329" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1329" s="0" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1330" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="B1330" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1330" s="0" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1331" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="B1331" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1331" s="0" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1332" s="2" t="n">
+        <v>45014</v>
+      </c>
+      <c r="B1332" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1332" s="0" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1333" s="2" t="n">
+        <v>45014</v>
+      </c>
+      <c r="B1333" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1333" s="0" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1334" s="2" t="n">
+        <v>45015</v>
+      </c>
+      <c r="B1334" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1334" s="0" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="1335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1335" s="2" t="n">
+        <v>45015</v>
+      </c>
+      <c r="B1335" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1335" s="0" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1336" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B1336" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1336" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1337" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B1337" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1337" s="0" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1338" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B1338" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1338" s="0" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1339" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B1339" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1339" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1340" s="2" t="n">
+        <v>45018</v>
+      </c>
+      <c r="B1340" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1340" s="0" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1341" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="B1341" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1341" s="0" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1342" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="B1342" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1342" s="0" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1343" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="B1343" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1343" s="0" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1344" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="B1344" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1344" s="0" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1345" s="2" t="n">
+        <v>45021</v>
+      </c>
+      <c r="B1345" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1345" s="0" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1346" s="2" t="n">
+        <v>45021</v>
+      </c>
+      <c r="B1346" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1346" s="0" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1347" s="2" t="n">
+        <v>45022</v>
+      </c>
+      <c r="B1347" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1347" s="0" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1348" s="2" t="n">
+        <v>45022</v>
+      </c>
+      <c r="B1348" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1348" s="0" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1349" s="2" t="n">
+        <v>45023</v>
+      </c>
+      <c r="B1349" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1349" s="0" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1350" s="2" t="n">
+        <v>45023</v>
+      </c>
+      <c r="B1350" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1350" s="0" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1351" s="2" t="n">
+        <v>45024</v>
+      </c>
+      <c r="B1351" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1351" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1352" s="2" t="n">
+        <v>45024</v>
+      </c>
+      <c r="B1352" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1352" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1353" s="2" t="n">
+        <v>45025</v>
+      </c>
+      <c r="B1353" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1353" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1354" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="B1354" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1354" s="0" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1355" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="B1355" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1355" s="0" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1356" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B1356" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1356" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1357" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B1357" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1357" s="0" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1358" s="2" t="n">
+        <v>45028</v>
+      </c>
+      <c r="B1358" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1358" s="0" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1359" s="2" t="n">
+        <v>45028</v>
+      </c>
+      <c r="B1359" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1359" s="0" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1360" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="B1360" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1360" s="0" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1361" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="B1361" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1361" s="0" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1362" s="2" t="n">
+        <v>45030</v>
+      </c>
+      <c r="B1362" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1362" s="0" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="1363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1363" s="2" t="n">
+        <v>45030</v>
+      </c>
+      <c r="B1363" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1363" s="0" t="n">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="1364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1364" s="2" t="n">
+        <v>45031</v>
+      </c>
+      <c r="B1364" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1364" s="0" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="1365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1365" s="2" t="n">
+        <v>45031</v>
+      </c>
+      <c r="B1365" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1365" s="0" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1366" s="2" t="n">
+        <v>45032</v>
+      </c>
+      <c r="B1366" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1366" s="0" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1367" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="B1367" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1367" s="0" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1368" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="B1368" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1368" s="0" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1369" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B1369" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1369" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1370" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B1370" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1370" s="0" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1371" s="2" t="n">
+        <v>45035</v>
+      </c>
+      <c r="B1371" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1371" s="0" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1372" s="2" t="n">
+        <v>45035</v>
+      </c>
+      <c r="B1372" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1372" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1373" s="2" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B1373" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1373" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1374" s="2" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B1374" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1374" s="0" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1375" s="2" t="n">
+        <v>45037</v>
+      </c>
+      <c r="B1375" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1375" s="0" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1376" s="2" t="n">
+        <v>45037</v>
+      </c>
+      <c r="B1376" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1376" s="0" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1377" s="2" t="n">
+        <v>45038</v>
+      </c>
+      <c r="B1377" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1377" s="0" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1378" s="2" t="n">
+        <v>45038</v>
+      </c>
+      <c r="B1378" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1378" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1379" s="2" t="n">
+        <v>45039</v>
+      </c>
+      <c r="B1379" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1379" s="0" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1380" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B1380" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1380" s="0" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1381" s="3" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B1381" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1381" s="0" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1382" s="2" t="n">
+        <v>45041</v>
+      </c>
+      <c r="B1382" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1382" s="0" t="n">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/turnips/turnips.xlsx
+++ b/data-raw/turnips/turnips.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -147,13 +147,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1382"/>
+  <dimension ref="A1:C1419"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1299" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1321" activeCellId="0" sqref="A1321"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1382" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1420" activeCellId="0" sqref="A1420"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15337,6 +15337,413 @@
       </c>
       <c r="C1382" s="0" t="n">
         <v>151</v>
+      </c>
+    </row>
+    <row r="1383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1383" s="2" t="n">
+        <v>45041</v>
+      </c>
+      <c r="B1383" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1383" s="0" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1384" s="2" t="n">
+        <v>45042</v>
+      </c>
+      <c r="B1384" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1384" s="0" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1385" s="2" t="n">
+        <v>45042</v>
+      </c>
+      <c r="B1385" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1385" s="0" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1386" s="2" t="n">
+        <v>45043</v>
+      </c>
+      <c r="B1386" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1386" s="0" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1387" s="2" t="n">
+        <v>45043</v>
+      </c>
+      <c r="B1387" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1387" s="0" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1388" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B1388" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1388" s="0" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1389" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B1389" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1389" s="0" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1390" s="2" t="n">
+        <v>45045</v>
+      </c>
+      <c r="B1390" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1390" s="0" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1391" s="2" t="n">
+        <v>45045</v>
+      </c>
+      <c r="B1391" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1391" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1392" s="2" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B1392" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1392" s="0" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1393" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B1393" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1393" s="0" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1394" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B1394" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1394" s="0" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1395" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B1395" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1395" s="0" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1396" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B1396" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1396" s="0" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1397" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="B1397" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1397" s="0" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1398" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="B1398" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1398" s="0" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1399" s="2" t="n">
+        <v>45050</v>
+      </c>
+      <c r="B1399" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1399" s="0" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1400" s="2" t="n">
+        <v>45050</v>
+      </c>
+      <c r="B1400" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1400" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1401" s="2" t="n">
+        <v>45051</v>
+      </c>
+      <c r="B1401" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1401" s="0" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1402" s="2" t="n">
+        <v>45051</v>
+      </c>
+      <c r="B1402" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1402" s="0" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1403" s="2" t="n">
+        <v>45052</v>
+      </c>
+      <c r="B1403" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1403" s="0" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1404" s="2" t="n">
+        <v>45052</v>
+      </c>
+      <c r="B1404" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1404" s="0" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1405" s="2" t="n">
+        <v>45053</v>
+      </c>
+      <c r="B1405" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1405" s="0" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1406" s="2" t="n">
+        <v>45054</v>
+      </c>
+      <c r="B1406" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1406" s="0" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1407" s="2" t="n">
+        <v>45054</v>
+      </c>
+      <c r="B1407" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1407" s="0" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1408" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B1408" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1408" s="0" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1409" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B1409" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1409" s="0" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1410" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="B1410" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1410" s="0" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1411" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="B1411" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1411" s="0" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1412" s="2" t="n">
+        <v>45057</v>
+      </c>
+      <c r="B1412" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1412" s="0" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1413" s="2" t="n">
+        <v>45057</v>
+      </c>
+      <c r="B1413" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1413" s="0" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1414" s="2" t="n">
+        <v>45058</v>
+      </c>
+      <c r="B1414" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1414" s="0" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1415" s="2" t="n">
+        <v>45058</v>
+      </c>
+      <c r="B1415" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1415" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1416" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="B1416" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1416" s="0" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1417" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="B1417" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1417" s="0" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1418" s="2" t="n">
+        <v>45060</v>
+      </c>
+      <c r="B1418" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1418" s="0" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1419" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B1419" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1419" s="0" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/turnips/turnips.xlsx
+++ b/data-raw/turnips/turnips.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="6">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -147,13 +147,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1419"/>
+  <dimension ref="A1:C1430"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1382" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1420" activeCellId="0" sqref="A1420"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1394" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1431" activeCellId="0" sqref="A1431"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15744,6 +15744,127 @@
       </c>
       <c r="C1419" s="0" t="n">
         <v>75</v>
+      </c>
+    </row>
+    <row r="1420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1420" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B1420" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1420" s="0" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1421" s="2" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B1421" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1421" s="0" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1422" s="2" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B1422" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1422" s="0" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1423" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="B1423" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1423" s="0" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1424" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="B1424" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1424" s="0" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1425" s="2" t="n">
+        <v>45064</v>
+      </c>
+      <c r="B1425" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1425" s="0" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1426" s="2" t="n">
+        <v>45064</v>
+      </c>
+      <c r="B1426" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1426" s="0" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1427" s="2" t="n">
+        <v>45065</v>
+      </c>
+      <c r="B1427" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1427" s="0" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1428" s="2" t="n">
+        <v>45065</v>
+      </c>
+      <c r="B1428" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1428" s="0" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1429" s="2" t="n">
+        <v>45066</v>
+      </c>
+      <c r="B1429" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1429" s="0" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1430" s="2" t="n">
+        <v>45066</v>
+      </c>
+      <c r="B1430" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1430" s="0" t="n">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
